--- a/DaySale_2025-05-22_15-06.xlsx
+++ b/DaySale_2025-05-22_15-06.xlsx
@@ -326,6 +326,9 @@
     <t>12.00</t>
   </si>
   <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
@@ -339,6 +342,12 @@
   </si>
   <si>
     <t>24.00</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>20.00</t>
   </si>
   <si>
     <t>Thursday, 22 May, 2025 3:06 PM</t>
@@ -898,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45799.629430355155</v>
+        <v>45799.629594992621</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -907,7 +916,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45799.629430355155</v>
+        <v>45799.629594992621</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -2032,7 +2041,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2051,7 +2060,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B48" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2059,7 +2068,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2067,35 +2076,89 @@
         <v>21</v>
       </c>
       <c t="s" r="L48" s="8">
+        <v>13</v>
+      </c>
+      <c t="s" r="M48" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c t="s" r="B49" s="8">
+        <v>108</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>109</v>
       </c>
-      <c t="s" r="M48" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="12">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c t="s" r="K49" s="10">
+        <v>21</v>
+      </c>
+      <c t="s" r="L49" s="8">
         <v>110</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c t="s" r="F49" s="13">
+      <c t="s" r="M49" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c t="s" r="B50" s="8">
         <v>111</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c t="s" r="I49" s="15">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>103</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c t="s" r="K50" s="10">
+        <v>21</v>
+      </c>
+      <c t="s" r="L50" s="8">
         <v>112</v>
       </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
+      <c t="s" r="M50" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="12">
+        <v>113</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c t="s" r="F51" s="13">
+        <v>114</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c t="s" r="I51" s="15">
+        <v>115</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="98">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -2187,9 +2250,13 @@
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="H48:J48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:M51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-22_15-06.xlsx
+++ b/DaySale_2025-05-22_15-06.xlsx
@@ -140,51 +140,54 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>FUSIDERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>FUSIDERM 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -308,7 +311,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -907,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45799.629594992621</v>
+        <v>45799.629662468702</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -916,7 +919,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45799.629594992621</v>
+        <v>45799.629662468702</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1420,7 +1423,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1428,7 +1431,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L24" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="M24" s="11">
         <v>18</v>
@@ -1439,7 +1442,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B25" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1455,7 +1458,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L25" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="M25" s="11">
         <v>14</v>
@@ -1466,7 +1469,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B26" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1482,7 +1485,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L26" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="M26" s="11">
         <v>14</v>
@@ -1493,7 +1496,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B27" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1509,7 +1512,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L27" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="M27" s="11">
         <v>14</v>
@@ -1520,7 +1523,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B28" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1536,7 +1539,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L28" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="M28" s="11">
         <v>18</v>
@@ -1547,7 +1550,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B29" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1563,7 +1566,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L29" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="M29" s="11">
         <v>14</v>
@@ -1574,7 +1577,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B30" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1590,7 +1593,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L30" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="M30" s="11">
         <v>14</v>
@@ -1601,7 +1604,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B31" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1617,7 +1620,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L31" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="M31" s="11">
         <v>14</v>
@@ -1628,7 +1631,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B32" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1636,7 +1639,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1644,7 +1647,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L32" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="M32" s="11">
         <v>18</v>
@@ -1655,7 +1658,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B33" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1663,7 +1666,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1682,7 +1685,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B34" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1698,7 +1701,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L34" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="M34" s="11">
         <v>18</v>
@@ -1709,7 +1712,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B35" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1725,7 +1728,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L35" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="M35" s="11">
         <v>14</v>
@@ -1736,7 +1739,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B36" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1763,7 +1766,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B37" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1771,7 +1774,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1790,7 +1793,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B38" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1806,7 +1809,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L38" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="M38" s="11">
         <v>14</v>
@@ -1817,7 +1820,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B39" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1833,7 +1836,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L39" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="M39" s="11">
         <v>14</v>
@@ -1844,7 +1847,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B40" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1871,7 +1874,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B41" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1879,7 +1882,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1887,7 +1890,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L41" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="M41" s="11">
         <v>14</v>
@@ -1898,7 +1901,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B42" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1914,7 +1917,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L42" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="M42" s="11">
         <v>14</v>
@@ -1925,7 +1928,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B43" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1941,7 +1944,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L43" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="M43" s="11">
         <v>14</v>
@@ -1952,7 +1955,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B44" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1968,10 +1971,10 @@
         <v>21</v>
       </c>
       <c t="s" r="L44" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="M44" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -1979,7 +1982,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B45" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -1995,7 +1998,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L45" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="M45" s="11">
         <v>14</v>
@@ -2006,7 +2009,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B46" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2014,7 +2017,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2022,7 +2025,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L46" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="M46" s="11">
         <v>14</v>
@@ -2033,7 +2036,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B47" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2060,7 +2063,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B48" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2068,7 +2071,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2087,7 +2090,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B49" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2095,7 +2098,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2103,7 +2106,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L49" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="M49" s="11">
         <v>14</v>
@@ -2114,7 +2117,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B50" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2122,7 +2125,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2130,7 +2133,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L50" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="M50" s="11">
         <v>14</v>
@@ -2138,19 +2141,19 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c t="s" r="A51" s="12">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c t="s" r="F51" s="13">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="14"/>
       <c t="s" r="I51" s="15">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>

--- a/DaySale_2025-05-22_15-06.xlsx
+++ b/DaySale_2025-05-22_15-06.xlsx
@@ -281,6 +281,12 @@
     <t>18.00</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
@@ -293,6 +299,15 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>61:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -348,9 +363,6 @@
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
-    <t>20.00</t>
   </si>
   <si>
     <t>Thursday, 22 May, 2025 3:06 PM</t>
@@ -910,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45799.629662468702</v>
+        <v>45799.629724853963</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -919,7 +931,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45799.629662468702</v>
+        <v>45799.629724853963</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1855,7 +1867,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1863,7 +1875,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L40" s="8">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c t="s" r="M40" s="11">
         <v>14</v>
@@ -1874,7 +1886,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B41" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1882,7 +1894,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1890,7 +1902,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L41" s="8">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c t="s" r="M41" s="11">
         <v>14</v>
@@ -1901,7 +1913,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B42" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1909,7 +1921,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1936,7 +1948,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1944,10 +1956,10 @@
         <v>21</v>
       </c>
       <c t="s" r="L43" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="M43" s="11">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -1955,7 +1967,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B44" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1971,10 +1983,10 @@
         <v>21</v>
       </c>
       <c t="s" r="L44" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="M44" s="11">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2017,7 +2029,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2025,10 +2037,10 @@
         <v>21</v>
       </c>
       <c t="s" r="L46" s="8">
+        <v>104</v>
+      </c>
+      <c t="s" r="M46" s="11">
         <v>105</v>
-      </c>
-      <c t="s" r="M46" s="11">
-        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2044,7 +2056,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2052,7 +2064,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L47" s="8">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c t="s" r="M47" s="11">
         <v>14</v>
@@ -2063,7 +2075,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B48" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2071,7 +2083,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2079,7 +2091,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L48" s="8">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c t="s" r="M48" s="11">
         <v>14</v>
@@ -2090,7 +2102,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B49" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2098,7 +2110,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2106,7 +2118,7 @@
         <v>21</v>
       </c>
       <c t="s" r="L49" s="8">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c t="s" r="M49" s="11">
         <v>14</v>
@@ -2125,7 +2137,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2133,35 +2145,89 @@
         <v>21</v>
       </c>
       <c t="s" r="L50" s="8">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c t="s" r="M50" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="12">
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c t="s" r="B51" s="8">
         <v>114</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c t="s" r="F51" s="13">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>115</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
-      <c t="s" r="I51" s="15">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c t="s" r="K51" s="10">
+        <v>21</v>
+      </c>
+      <c t="s" r="L51" s="8">
         <v>116</v>
       </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
+      <c t="s" r="M51" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c t="s" r="B52" s="8">
+        <v>117</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>109</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c t="s" r="K52" s="10">
+        <v>21</v>
+      </c>
+      <c t="s" r="L52" s="8">
+        <v>91</v>
+      </c>
+      <c t="s" r="M52" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="12">
+        <v>118</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c t="s" r="F53" s="13">
+        <v>119</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c t="s" r="I53" s="15">
+        <v>120</v>
+      </c>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="102">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -2257,9 +2323,13 @@
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:M53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
